--- a/biology/Botanique/Hemithrinax/Hemithrinax.xlsx
+++ b/biology/Botanique/Hemithrinax/Hemithrinax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemithrinax est un genre de la famille des Arecaceae (Palmiers), comprenant des espèces endémiques de l'est de l'île de Cuba.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 juin 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 juin 2016) :
 Hemithrinax compacta (Griseb. &amp; H.Wendl.) M.Gómez, Noc. Bot. Sist.: 51 (1893).
 Hemithrinax ekmaniana Burret, Kongl. Svenska Vetensk. Acad. Handl., ser. 3, 6(7): 9 (1929).
 Hemithrinax rivularis León, Mem. Soc. Cub. Hist. Nat. Felipe Poey 15: 380 (1941).</t>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Coryphoideae
-Tribu des Cryosophileae   [2]
+Tribu des Cryosophileae   
 Le genre partage cette tribu avec 10 autres genres qui sont :
 Schippia, Trithrinax, Sabinaria, Itaya, Chelyocarpus, Cryosophila, Thrinax, Leucothrinax, Zombia et Coccothrinax.
 </t>
